--- a/XinTongYuan_SatelliteCarBigScreen/Assets/StreamingAssets/历年卫星星座在轨数量.xlsx
+++ b/XinTongYuan_SatelliteCarBigScreen/Assets/StreamingAssets/历年卫星星座在轨数量.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>年份</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>千帆星座（中国）</t>
-  </si>
-  <si>
-    <t>国网星座（中国）</t>
   </si>
   <si>
     <t>一网星座（英国）</t>
@@ -1238,10 +1235,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -1251,10 +1248,10 @@
     <col min="3" max="3" width="20.225" customWidth="1"/>
     <col min="4" max="4" width="18.1083333333333" customWidth="1"/>
     <col min="5" max="5" width="23.1083333333333" customWidth="1"/>
-    <col min="6" max="10" width="20.6666666666667" customWidth="1"/>
+    <col min="6" max="9" width="20.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" spans="1:10">
+    <row r="1" ht="17.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1279,12 +1276,9 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:10">
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:9">
       <c r="A2" s="3">
         <v>1978</v>
       </c>
@@ -1309,12 +1303,9 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:10">
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:9">
       <c r="A3" s="3">
         <v>1979</v>
       </c>
@@ -1339,12 +1330,9 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:10">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" ht="14.25" spans="1:9">
       <c r="A4" s="3">
         <v>1980</v>
       </c>
@@ -1369,12 +1357,9 @@
       <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:10">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" ht="14.25" spans="1:9">
       <c r="A5" s="3">
         <v>1981</v>
       </c>
@@ -1399,12 +1384,9 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:10">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" ht="14.25" spans="1:9">
       <c r="A6" s="3">
         <v>1982</v>
       </c>
@@ -1429,12 +1411,9 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:10">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" ht="14.25" spans="1:9">
       <c r="A7" s="3">
         <v>1983</v>
       </c>
@@ -1459,12 +1438,9 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:10">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:9">
       <c r="A8" s="3">
         <v>1984</v>
       </c>
@@ -1489,12 +1465,9 @@
       <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:10">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" ht="14.25" spans="1:9">
       <c r="A9" s="3">
         <v>1985</v>
       </c>
@@ -1519,12 +1492,9 @@
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:10">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" ht="14.25" spans="1:9">
       <c r="A10" s="3">
         <v>1986</v>
       </c>
@@ -1549,12 +1519,9 @@
       <c r="H10" s="1">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:10">
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" ht="14.25" spans="1:9">
       <c r="A11" s="3">
         <v>1987</v>
       </c>
@@ -1579,12 +1546,9 @@
       <c r="H11" s="1">
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:10">
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" ht="14.25" spans="1:9">
       <c r="A12" s="3">
         <v>1988</v>
       </c>
@@ -1609,12 +1573,9 @@
       <c r="H12" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:10">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" ht="14.25" spans="1:9">
       <c r="A13" s="3">
         <v>1989</v>
       </c>
@@ -1639,12 +1600,9 @@
       <c r="H13" s="1">
         <v>0</v>
       </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:10">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:9">
       <c r="A14" s="3">
         <v>1990</v>
       </c>
@@ -1669,12 +1627,9 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:10">
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" ht="14.25" spans="1:9">
       <c r="A15" s="3">
         <v>1991</v>
       </c>
@@ -1699,12 +1654,9 @@
       <c r="H15" s="1">
         <v>0</v>
       </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:10">
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" ht="14.25" spans="1:9">
       <c r="A16" s="3">
         <v>1992</v>
       </c>
@@ -1729,12 +1681,9 @@
       <c r="H16" s="1">
         <v>0</v>
       </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:10">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" ht="14.25" spans="1:9">
       <c r="A17" s="3">
         <v>1993</v>
       </c>
@@ -1759,12 +1708,9 @@
       <c r="H17" s="1">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:10">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" ht="14.25" spans="1:9">
       <c r="A18" s="3">
         <v>1994</v>
       </c>
@@ -1789,12 +1735,9 @@
       <c r="H18" s="1">
         <v>0</v>
       </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:10">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" ht="14.25" spans="1:9">
       <c r="A19" s="3">
         <v>1995</v>
       </c>
@@ -1819,12 +1762,9 @@
       <c r="H19" s="1">
         <v>0</v>
       </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:10">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" ht="14.25" spans="1:9">
       <c r="A20" s="3">
         <v>1996</v>
       </c>
@@ -1849,12 +1789,9 @@
       <c r="H20" s="1">
         <v>0</v>
       </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:10">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:9">
       <c r="A21" s="3">
         <v>1997</v>
       </c>
@@ -1879,12 +1816,9 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:10">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:9">
       <c r="A22" s="3">
         <v>1998</v>
       </c>
@@ -1909,12 +1843,9 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:10">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" ht="14.25" spans="1:9">
       <c r="A23" s="3">
         <v>1999</v>
       </c>
@@ -1939,12 +1870,9 @@
       <c r="H23" s="1">
         <v>0</v>
       </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:10">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:9">
       <c r="A24" s="3">
         <v>2000</v>
       </c>
@@ -1969,12 +1897,9 @@
       <c r="H24" s="1">
         <v>0</v>
       </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:10">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" ht="14.25" spans="1:9">
       <c r="A25" s="3">
         <v>2001</v>
       </c>
@@ -1999,12 +1924,9 @@
       <c r="H25" s="1">
         <v>0</v>
       </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:10">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:9">
       <c r="A26" s="3">
         <v>2002</v>
       </c>
@@ -2029,12 +1951,9 @@
       <c r="H26" s="1">
         <v>0</v>
       </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:10">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:9">
       <c r="A27" s="3">
         <v>2003</v>
       </c>
@@ -2059,12 +1978,9 @@
       <c r="H27" s="1">
         <v>0</v>
       </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:10">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:9">
       <c r="A28" s="3">
         <v>2004</v>
       </c>
@@ -2089,12 +2005,9 @@
       <c r="H28" s="1">
         <v>0</v>
       </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:10">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" ht="14.25" spans="1:9">
       <c r="A29" s="3">
         <v>2005</v>
       </c>
@@ -2119,12 +2032,9 @@
       <c r="H29" s="1">
         <v>0</v>
       </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" ht="14.25" spans="1:10">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:9">
       <c r="A30" s="3">
         <v>2006</v>
       </c>
@@ -2149,12 +2059,9 @@
       <c r="H30" s="1">
         <v>0</v>
       </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" ht="14.25" spans="1:10">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" ht="14.25" spans="1:9">
       <c r="A31" s="3">
         <v>2007</v>
       </c>
@@ -2179,12 +2086,9 @@
       <c r="H31" s="1">
         <v>0</v>
       </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:10">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" ht="14.25" spans="1:9">
       <c r="A32" s="3">
         <v>2008</v>
       </c>
@@ -2209,12 +2113,9 @@
       <c r="H32" s="1">
         <v>0</v>
       </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" ht="14.25" spans="1:10">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" ht="14.25" spans="1:9">
       <c r="A33" s="3">
         <v>2009</v>
       </c>
@@ -2239,12 +2140,9 @@
       <c r="H33" s="1">
         <v>0</v>
       </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:10">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:9">
       <c r="A34" s="3">
         <v>2010</v>
       </c>
@@ -2269,12 +2167,9 @@
       <c r="H34" s="1">
         <v>0</v>
       </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" ht="14.25" spans="1:10">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" ht="14.25" spans="1:9">
       <c r="A35" s="3">
         <v>2011</v>
       </c>
@@ -2299,12 +2194,9 @@
       <c r="H35" s="1">
         <v>0</v>
       </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" ht="14.25" spans="1:10">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:9">
       <c r="A36" s="3">
         <v>2012</v>
       </c>
@@ -2329,12 +2221,9 @@
       <c r="H36" s="1">
         <v>0</v>
       </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" ht="14.25" spans="1:10">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" ht="14.25" spans="1:9">
       <c r="A37" s="3">
         <v>2013</v>
       </c>
@@ -2359,12 +2248,9 @@
       <c r="H37" s="1">
         <v>0</v>
       </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" ht="14.25" spans="1:10">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:9">
       <c r="A38" s="3">
         <v>2014</v>
       </c>
@@ -2389,12 +2275,9 @@
       <c r="H38" s="1">
         <v>0</v>
       </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" ht="14.25" spans="1:10">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" ht="14.25" spans="1:9">
       <c r="A39" s="3">
         <v>2015</v>
       </c>
@@ -2419,12 +2302,9 @@
       <c r="H39" s="1">
         <v>0</v>
       </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" ht="14.25" spans="1:10">
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:9">
       <c r="A40" s="3">
         <v>2016</v>
       </c>
@@ -2449,12 +2329,9 @@
       <c r="H40" s="1">
         <v>0</v>
       </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" ht="14.25" spans="1:10">
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" ht="14.25" spans="1:9">
       <c r="A41" s="3">
         <v>2017</v>
       </c>
@@ -2479,12 +2356,9 @@
       <c r="H41" s="1">
         <v>0</v>
       </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:10">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:9">
       <c r="A42" s="3">
         <v>2018</v>
       </c>
@@ -2509,12 +2383,9 @@
       <c r="H42" s="1">
         <v>0</v>
       </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" ht="14.25" spans="1:10">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" ht="14.25" spans="1:9">
       <c r="A43" s="3">
         <v>2019</v>
       </c>
@@ -2534,17 +2405,14 @@
         <v>0</v>
       </c>
       <c r="G43" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H43" s="1">
-        <v>6</v>
-      </c>
-      <c r="I43" s="1">
         <v>120</v>
       </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" ht="14.25" spans="1:10">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" ht="14.25" spans="1:9">
       <c r="A44" s="3">
         <v>2020</v>
       </c>
@@ -2564,17 +2432,14 @@
         <v>0</v>
       </c>
       <c r="G44" s="1">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="H44" s="1">
-        <v>74</v>
-      </c>
-      <c r="I44" s="1">
         <v>543</v>
       </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" ht="14.25" spans="1:10">
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" ht="14.25" spans="1:9">
       <c r="A45" s="3">
         <v>2021</v>
       </c>
@@ -2594,17 +2459,14 @@
         <v>0</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="H45" s="1">
-        <v>182</v>
-      </c>
-      <c r="I45" s="1">
         <v>1719</v>
       </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" ht="14.25" spans="1:10">
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" ht="14.25" spans="1:9">
       <c r="A46" s="3">
         <v>2022</v>
       </c>
@@ -2624,17 +2486,14 @@
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="H46" s="1">
-        <v>450</v>
-      </c>
-      <c r="I46" s="1">
         <v>3374</v>
       </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" ht="14.25" spans="1:10">
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" ht="14.25" spans="1:9">
       <c r="A47" s="3">
         <v>2023</v>
       </c>
@@ -2654,17 +2513,14 @@
         <v>0</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="H47" s="1">
-        <v>618</v>
-      </c>
-      <c r="I47" s="1">
         <v>5144</v>
       </c>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" ht="14.25" spans="1:10">
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" ht="14.25" spans="1:9">
       <c r="A48" s="3">
         <v>2024</v>
       </c>
@@ -2684,17 +2540,14 @@
         <v>54</v>
       </c>
       <c r="G48" s="1">
-        <v>23</v>
+        <v>648</v>
       </c>
       <c r="H48" s="1">
-        <v>648</v>
-      </c>
-      <c r="I48" s="1">
         <v>7563</v>
       </c>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" ht="14.25" spans="1:10">
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" ht="14.25" spans="1:9">
       <c r="A49" s="3">
         <v>2025</v>
       </c>
@@ -2714,15 +2567,12 @@
         <v>90</v>
       </c>
       <c r="G49" s="1">
-        <v>51</v>
+        <v>648</v>
       </c>
       <c r="H49" s="1">
-        <v>648</v>
-      </c>
-      <c r="I49" s="1">
         <v>7782</v>
       </c>
-      <c r="J49" s="1"/>
+      <c r="I49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
